--- a/data/pca/factorExposure/factorExposure_2011-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004876063734545633</v>
+        <v>-0.01112283683360517</v>
       </c>
       <c r="C2">
-        <v>-0.01200968934023536</v>
+        <v>-5.707483333950719e-06</v>
       </c>
       <c r="D2">
-        <v>0.04432978099981539</v>
+        <v>0.005094798799254781</v>
       </c>
       <c r="E2">
-        <v>-0.001222887889885722</v>
+        <v>-0.02163930399230128</v>
       </c>
       <c r="F2">
-        <v>-0.01372821455149568</v>
+        <v>-0.0234122854360292</v>
       </c>
       <c r="G2">
-        <v>-0.02340628280872118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.008466701890185356</v>
+      </c>
+      <c r="H2">
+        <v>0.01197614239385728</v>
+      </c>
+      <c r="I2">
+        <v>-0.0494265035441008</v>
+      </c>
+      <c r="J2">
+        <v>0.04816498124161869</v>
+      </c>
+      <c r="K2">
+        <v>0.002572623213348969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1040948923517966</v>
+        <v>-0.1166643193082124</v>
       </c>
       <c r="C4">
-        <v>-0.02874829265572012</v>
+        <v>-0.05944348493404313</v>
       </c>
       <c r="D4">
-        <v>0.04712848358618706</v>
+        <v>-0.004147009883575727</v>
       </c>
       <c r="E4">
-        <v>0.05811552345711256</v>
+        <v>-0.01346763714023332</v>
       </c>
       <c r="F4">
-        <v>-0.03753643419039839</v>
+        <v>-0.01840283666700345</v>
       </c>
       <c r="G4">
-        <v>-0.02909690938932447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07181609332310833</v>
+      </c>
+      <c r="H4">
+        <v>0.13804116311946</v>
+      </c>
+      <c r="I4">
+        <v>-0.01139483508537932</v>
+      </c>
+      <c r="J4">
+        <v>-0.03864069022563886</v>
+      </c>
+      <c r="K4">
+        <v>-0.0231570367694243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.127321288764213</v>
+        <v>-0.1232650058018043</v>
       </c>
       <c r="C6">
-        <v>-0.02596679484597955</v>
+        <v>-0.01170304972368235</v>
       </c>
       <c r="D6">
-        <v>0.02468575918466757</v>
+        <v>0.005358817461862388</v>
       </c>
       <c r="E6">
-        <v>-0.009135177309265361</v>
+        <v>0.02482119298063465</v>
       </c>
       <c r="F6">
-        <v>0.1567145940928494</v>
+        <v>-0.009502110096090513</v>
       </c>
       <c r="G6">
-        <v>0.1262969471804775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05871264722871684</v>
+      </c>
+      <c r="H6">
+        <v>0.03205750437637431</v>
+      </c>
+      <c r="I6">
+        <v>0.2477287247591761</v>
+      </c>
+      <c r="J6">
+        <v>-0.3359521063171598</v>
+      </c>
+      <c r="K6">
+        <v>0.1800557656542303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09112302415151005</v>
+        <v>-0.07688533123952691</v>
       </c>
       <c r="C7">
-        <v>-0.04074058823629575</v>
+        <v>-0.05846999292458476</v>
       </c>
       <c r="D7">
-        <v>0.03917779529670551</v>
+        <v>0.03320790065892353</v>
       </c>
       <c r="E7">
-        <v>0.02506194799563075</v>
+        <v>-0.02345958906201367</v>
       </c>
       <c r="F7">
-        <v>0.02011588218390883</v>
+        <v>-0.03746913016593072</v>
       </c>
       <c r="G7">
-        <v>-0.02521417877333704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.024237913814976</v>
+      </c>
+      <c r="H7">
+        <v>0.04294645632994839</v>
+      </c>
+      <c r="I7">
+        <v>0.001844630585828218</v>
+      </c>
+      <c r="J7">
+        <v>0.004980273929784586</v>
+      </c>
+      <c r="K7">
+        <v>-0.1004573417450289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04304120195041627</v>
+        <v>-0.05212675339058598</v>
       </c>
       <c r="C8">
-        <v>0.02307092885492697</v>
+        <v>-0.01215588296651817</v>
       </c>
       <c r="D8">
-        <v>0.08553147365188074</v>
+        <v>0.01364157440166056</v>
       </c>
       <c r="E8">
-        <v>0.08909365808380039</v>
+        <v>-0.009645167392434883</v>
       </c>
       <c r="F8">
-        <v>-0.03170489000455619</v>
+        <v>-0.00954247821058591</v>
       </c>
       <c r="G8">
-        <v>-0.1225455687538659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.1007982952944356</v>
+      </c>
+      <c r="H8">
+        <v>0.106977984166127</v>
+      </c>
+      <c r="I8">
+        <v>-0.00614936470277581</v>
+      </c>
+      <c r="J8">
+        <v>-0.0399617123551818</v>
+      </c>
+      <c r="K8">
+        <v>-0.02216384366763842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09386090756464147</v>
+        <v>-0.08764392478943039</v>
       </c>
       <c r="C9">
-        <v>-0.03776418338997355</v>
+        <v>-0.05382187662713748</v>
       </c>
       <c r="D9">
-        <v>0.03651625450354525</v>
+        <v>0.006489205357379506</v>
       </c>
       <c r="E9">
-        <v>0.046141231840447</v>
+        <v>-0.0178302269753027</v>
       </c>
       <c r="F9">
-        <v>-0.02912385735362149</v>
+        <v>-0.008683597815691802</v>
       </c>
       <c r="G9">
-        <v>-0.06717971036876753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06620639661626378</v>
+      </c>
+      <c r="H9">
+        <v>0.1156181335465742</v>
+      </c>
+      <c r="I9">
+        <v>0.006214855547568038</v>
+      </c>
+      <c r="J9">
+        <v>-0.007795463330366901</v>
+      </c>
+      <c r="K9">
+        <v>0.001251653404956927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03872884163937059</v>
+        <v>-0.08963119210081777</v>
       </c>
       <c r="C10">
-        <v>0.1592047591191562</v>
+        <v>0.1764845277908625</v>
       </c>
       <c r="D10">
-        <v>0.09645193117912988</v>
+        <v>-0.02966707450195815</v>
       </c>
       <c r="E10">
-        <v>0.02333661005956022</v>
+        <v>-0.03713774329893044</v>
       </c>
       <c r="F10">
-        <v>0.0346003195719873</v>
+        <v>-0.05047219466735364</v>
       </c>
       <c r="G10">
-        <v>-0.002056188511863935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002857551874805018</v>
+      </c>
+      <c r="H10">
+        <v>-0.005765124385277634</v>
+      </c>
+      <c r="I10">
+        <v>0.0182002324050578</v>
+      </c>
+      <c r="J10">
+        <v>-0.0395516457585701</v>
+      </c>
+      <c r="K10">
+        <v>-0.04797796929402826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07685091930935388</v>
+        <v>-0.07761972993312793</v>
       </c>
       <c r="C11">
-        <v>-0.060939865465606</v>
+        <v>-0.06133756675223602</v>
       </c>
       <c r="D11">
-        <v>0.01064698309254307</v>
+        <v>0.02174283769378834</v>
       </c>
       <c r="E11">
-        <v>-0.007903694445575066</v>
+        <v>-0.01887617934689988</v>
       </c>
       <c r="F11">
-        <v>-0.02754869484141243</v>
+        <v>0.02081062101657232</v>
       </c>
       <c r="G11">
-        <v>-0.1581336865090052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.07908513963595785</v>
+      </c>
+      <c r="H11">
+        <v>0.1114362372697223</v>
+      </c>
+      <c r="I11">
+        <v>-0.009334174535369279</v>
+      </c>
+      <c r="J11">
+        <v>0.1025313890517396</v>
+      </c>
+      <c r="K11">
+        <v>0.008540462612713871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07318165858705811</v>
+        <v>-0.07834324951858671</v>
       </c>
       <c r="C12">
-        <v>-0.03813775298718946</v>
+        <v>-0.06704696726776872</v>
       </c>
       <c r="D12">
-        <v>0.004608672968082737</v>
+        <v>0.03092479834744209</v>
       </c>
       <c r="E12">
-        <v>0.03124678522883848</v>
+        <v>-0.04235507596398019</v>
       </c>
       <c r="F12">
-        <v>-0.01512356002895599</v>
+        <v>0.03020533108699968</v>
       </c>
       <c r="G12">
-        <v>-0.1467784366734031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09634842981110152</v>
+      </c>
+      <c r="H12">
+        <v>0.09569415805235235</v>
+      </c>
+      <c r="I12">
+        <v>0.01174671696742533</v>
+      </c>
+      <c r="J12">
+        <v>0.1043661464841405</v>
+      </c>
+      <c r="K12">
+        <v>0.01243884766807139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06318924830685772</v>
+        <v>-0.04070069309947633</v>
       </c>
       <c r="C13">
-        <v>-0.002237948125881273</v>
+        <v>-0.02489161598030745</v>
       </c>
       <c r="D13">
-        <v>0.01154256134881512</v>
+        <v>0.009808656796540605</v>
       </c>
       <c r="E13">
-        <v>0.02500570840820035</v>
+        <v>0.003672152415761587</v>
       </c>
       <c r="F13">
-        <v>-0.04649214960235764</v>
+        <v>-0.02171382845339247</v>
       </c>
       <c r="G13">
-        <v>-0.05282832871077191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04729699587748982</v>
+      </c>
+      <c r="H13">
+        <v>0.04414960842500414</v>
+      </c>
+      <c r="I13">
+        <v>0.03197627115699376</v>
+      </c>
+      <c r="J13">
+        <v>-0.04172392190630868</v>
+      </c>
+      <c r="K13">
+        <v>-0.02356410188667153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05283979754294744</v>
+        <v>-0.04432869263465244</v>
       </c>
       <c r="C14">
-        <v>-0.005552253340083497</v>
+        <v>-0.02019046719768076</v>
       </c>
       <c r="D14">
-        <v>0.03236334808034558</v>
+        <v>-0.0118135409175274</v>
       </c>
       <c r="E14">
-        <v>0.02492220236690652</v>
+        <v>-0.01440481039417366</v>
       </c>
       <c r="F14">
-        <v>-0.01949802125251558</v>
+        <v>0.008099819474378453</v>
       </c>
       <c r="G14">
-        <v>-0.06128903260786313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05209410034150751</v>
+      </c>
+      <c r="H14">
+        <v>0.04916035449864081</v>
+      </c>
+      <c r="I14">
+        <v>-0.01465374553962588</v>
+      </c>
+      <c r="J14">
+        <v>-0.05128342626882092</v>
+      </c>
+      <c r="K14">
+        <v>-0.02541366976020567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0389877435568327</v>
+        <v>-0.02381413068661689</v>
       </c>
       <c r="C15">
-        <v>0.01125898915087347</v>
+        <v>-0.004401694685147094</v>
       </c>
       <c r="D15">
-        <v>0.0106982136792863</v>
+        <v>0.006087740055513172</v>
       </c>
       <c r="E15">
-        <v>0.005748911831759742</v>
+        <v>0.01612980059784222</v>
       </c>
       <c r="F15">
-        <v>-0.02277039333262815</v>
+        <v>-0.03341427078975508</v>
       </c>
       <c r="G15">
-        <v>-0.01683160521803425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01166576810900611</v>
+      </c>
+      <c r="H15">
+        <v>0.007886622161209642</v>
+      </c>
+      <c r="I15">
+        <v>0.009033630841441681</v>
+      </c>
+      <c r="J15">
+        <v>-0.05439613372895757</v>
+      </c>
+      <c r="K15">
+        <v>-0.03333471234890352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07975225486206931</v>
+        <v>-0.08335527413941897</v>
       </c>
       <c r="C16">
-        <v>-0.07212703226890768</v>
+        <v>-0.0691714668200821</v>
       </c>
       <c r="D16">
-        <v>0.01692374998213713</v>
+        <v>0.031149948784201</v>
       </c>
       <c r="E16">
-        <v>0.03397251417072773</v>
+        <v>-0.02431217816150029</v>
       </c>
       <c r="F16">
-        <v>-0.05281495212511086</v>
+        <v>0.01848833418728899</v>
       </c>
       <c r="G16">
-        <v>-0.1162171978043941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1098172028787903</v>
+      </c>
+      <c r="H16">
+        <v>0.09246616593767303</v>
+      </c>
+      <c r="I16">
+        <v>-0.004665925191743063</v>
+      </c>
+      <c r="J16">
+        <v>0.1106059464014236</v>
+      </c>
+      <c r="K16">
+        <v>0.0006155144334863547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05137603516172091</v>
+        <v>-0.0497635431258792</v>
       </c>
       <c r="C20">
-        <v>-0.02230462413009793</v>
+        <v>-0.03259359536265267</v>
       </c>
       <c r="D20">
-        <v>0.01768576198515254</v>
+        <v>-0.01060986963544437</v>
       </c>
       <c r="E20">
-        <v>0.02333694392064019</v>
+        <v>0.00022810496388927</v>
       </c>
       <c r="F20">
-        <v>-0.01849708366440425</v>
+        <v>-0.01813866876378864</v>
       </c>
       <c r="G20">
-        <v>-0.1083628134165633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0433612499506664</v>
+      </c>
+      <c r="H20">
+        <v>0.04938405522427679</v>
+      </c>
+      <c r="I20">
+        <v>-0.006509437960497325</v>
+      </c>
+      <c r="J20">
+        <v>-0.03665669212422962</v>
+      </c>
+      <c r="K20">
+        <v>-0.05868462644890517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02828857297364534</v>
+        <v>-0.02826890929986299</v>
       </c>
       <c r="C21">
-        <v>-0.03549293100430841</v>
+        <v>-0.0184791867103851</v>
       </c>
       <c r="D21">
-        <v>-0.00473403575194792</v>
+        <v>-0.02852539970384111</v>
       </c>
       <c r="E21">
-        <v>0.01596908398023414</v>
+        <v>0.01149932334162368</v>
       </c>
       <c r="F21">
-        <v>0.1015543073147081</v>
+        <v>0.006673621012687826</v>
       </c>
       <c r="G21">
-        <v>0.05932089986791728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03890007162038139</v>
+      </c>
+      <c r="H21">
+        <v>0.0710843835113454</v>
+      </c>
+      <c r="I21">
+        <v>0.06397594988850677</v>
+      </c>
+      <c r="J21">
+        <v>-0.03512477391623908</v>
+      </c>
+      <c r="K21">
+        <v>-0.1148696893335761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04440633968862633</v>
+        <v>-0.03495680322369897</v>
       </c>
       <c r="C22">
-        <v>-0.005086017267076274</v>
+        <v>-0.002526904783471802</v>
       </c>
       <c r="D22">
-        <v>-0.007957306110489138</v>
+        <v>0.08313944661013052</v>
       </c>
       <c r="E22">
-        <v>0.5647131148562772</v>
+        <v>0.3353340992387001</v>
       </c>
       <c r="F22">
-        <v>-0.05144156881192548</v>
+        <v>-0.549450036778751</v>
       </c>
       <c r="G22">
-        <v>0.316511054768712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1252472357386344</v>
+      </c>
+      <c r="H22">
+        <v>-0.1446929103615053</v>
+      </c>
+      <c r="I22">
+        <v>0.0059433022000858</v>
+      </c>
+      <c r="J22">
+        <v>0.08767078460698309</v>
+      </c>
+      <c r="K22">
+        <v>0.03569601070564193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04451176261933391</v>
+        <v>-0.03516502519828903</v>
       </c>
       <c r="C23">
-        <v>-0.005663699185485975</v>
+        <v>-0.003027888696327254</v>
       </c>
       <c r="D23">
-        <v>-0.006403043548219556</v>
+        <v>0.08433720246480989</v>
       </c>
       <c r="E23">
-        <v>0.5638603685734455</v>
+        <v>0.3365776756121758</v>
       </c>
       <c r="F23">
-        <v>-0.05216193279037407</v>
+        <v>-0.551262634372693</v>
       </c>
       <c r="G23">
-        <v>0.317441892575436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1266848517299353</v>
+      </c>
+      <c r="H23">
+        <v>-0.1411579755129792</v>
+      </c>
+      <c r="I23">
+        <v>0.005242877416182101</v>
+      </c>
+      <c r="J23">
+        <v>0.08473686242570395</v>
+      </c>
+      <c r="K23">
+        <v>0.03874642694107572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08519930196184265</v>
+        <v>-0.08578857676357853</v>
       </c>
       <c r="C24">
-        <v>-0.04739615356641225</v>
+        <v>-0.06134797734755049</v>
       </c>
       <c r="D24">
-        <v>0.0249753619521322</v>
+        <v>0.01521776781470959</v>
       </c>
       <c r="E24">
-        <v>0.03194059092290188</v>
+        <v>-0.02252573442039254</v>
       </c>
       <c r="F24">
-        <v>-0.01829673920740812</v>
+        <v>0.01306276831752319</v>
       </c>
       <c r="G24">
-        <v>-0.1215236346312546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.09625946030928602</v>
+      </c>
+      <c r="H24">
+        <v>0.09113050430210066</v>
+      </c>
+      <c r="I24">
+        <v>-0.003368394160845343</v>
+      </c>
+      <c r="J24">
+        <v>0.1131182946324117</v>
+      </c>
+      <c r="K24">
+        <v>0.02228425508675373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07609418024847389</v>
+        <v>-0.08711704446490315</v>
       </c>
       <c r="C25">
-        <v>-0.01939607354042944</v>
+        <v>-0.04702883498905652</v>
       </c>
       <c r="D25">
-        <v>0.02648895048237383</v>
+        <v>0.02264543250948512</v>
       </c>
       <c r="E25">
-        <v>0.02417033941971885</v>
+        <v>-0.04992360204866318</v>
       </c>
       <c r="F25">
-        <v>-0.008639133640599874</v>
+        <v>0.02905470942414579</v>
       </c>
       <c r="G25">
-        <v>-0.1152729876496479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1015777279634884</v>
+      </c>
+      <c r="H25">
+        <v>0.0819499077695483</v>
+      </c>
+      <c r="I25">
+        <v>-0.004072324867458542</v>
+      </c>
+      <c r="J25">
+        <v>0.0920936744258975</v>
+      </c>
+      <c r="K25">
+        <v>0.01778853745421486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05199155961178819</v>
+        <v>-0.04482133062419873</v>
       </c>
       <c r="C26">
-        <v>-0.02493506243209878</v>
+        <v>-0.007069139980650104</v>
       </c>
       <c r="D26">
-        <v>0.03182887573278377</v>
+        <v>-0.01898162552111027</v>
       </c>
       <c r="E26">
-        <v>0.01437577856437425</v>
+        <v>0.01387881160965541</v>
       </c>
       <c r="F26">
-        <v>-0.03607961963130549</v>
+        <v>-0.00620860256225476</v>
       </c>
       <c r="G26">
-        <v>-0.04990775296718006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.04781570597316469</v>
+      </c>
+      <c r="H26">
+        <v>0.03085142242216396</v>
+      </c>
+      <c r="I26">
+        <v>-0.008655734087823386</v>
+      </c>
+      <c r="J26">
+        <v>-0.0318176519715724</v>
+      </c>
+      <c r="K26">
+        <v>-0.01099356460121607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06363151634987312</v>
+        <v>-0.1061464153454903</v>
       </c>
       <c r="C28">
-        <v>0.2957542179089802</v>
+        <v>0.3175191565876048</v>
       </c>
       <c r="D28">
-        <v>0.06317506763973679</v>
+        <v>0.01082983482107881</v>
       </c>
       <c r="E28">
-        <v>-0.03273242927291719</v>
+        <v>-0.0205742004956833</v>
       </c>
       <c r="F28">
-        <v>0.05538090483902019</v>
+        <v>0.004444383379754789</v>
       </c>
       <c r="G28">
-        <v>0.01376771854511685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02638115539443258</v>
+      </c>
+      <c r="H28">
+        <v>0.006515386568049534</v>
+      </c>
+      <c r="I28">
+        <v>0.01779615754757088</v>
+      </c>
+      <c r="J28">
+        <v>0.006965327075417813</v>
+      </c>
+      <c r="K28">
+        <v>-0.02317128806890936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05785707420604602</v>
+        <v>-0.04085105755591868</v>
       </c>
       <c r="C29">
-        <v>-0.009894206862016744</v>
+        <v>-0.01837033633257518</v>
       </c>
       <c r="D29">
-        <v>0.02783096265189879</v>
+        <v>0.001723153983756701</v>
       </c>
       <c r="E29">
-        <v>0.04608425000456946</v>
+        <v>-0.0301031226619773</v>
       </c>
       <c r="F29">
-        <v>-0.03863445858640691</v>
+        <v>-0.004408841009188371</v>
       </c>
       <c r="G29">
-        <v>-0.03929793893025443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09603223967218928</v>
+      </c>
+      <c r="H29">
+        <v>0.03842770851611493</v>
+      </c>
+      <c r="I29">
+        <v>-0.0003926560247515012</v>
+      </c>
+      <c r="J29">
+        <v>-0.05340127383197292</v>
+      </c>
+      <c r="K29">
+        <v>-0.04445766812778834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.114106965268699</v>
+        <v>-0.1086191796863489</v>
       </c>
       <c r="C30">
-        <v>0.02291935751001496</v>
+        <v>-0.05423501124252145</v>
       </c>
       <c r="D30">
-        <v>0.07658111352390798</v>
+        <v>0.0418693044697734</v>
       </c>
       <c r="E30">
-        <v>0.2001374297969544</v>
+        <v>0.005847451882422294</v>
       </c>
       <c r="F30">
-        <v>0.08052196931783326</v>
+        <v>0.01860791792758613</v>
       </c>
       <c r="G30">
-        <v>-0.1589885807850045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1910685635343803</v>
+      </c>
+      <c r="H30">
+        <v>0.09702300621543822</v>
+      </c>
+      <c r="I30">
+        <v>0.1912629726318056</v>
+      </c>
+      <c r="J30">
+        <v>0.1046858755144147</v>
+      </c>
+      <c r="K30">
+        <v>0.006471457290074803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05731383707851857</v>
+        <v>-0.03900486532383231</v>
       </c>
       <c r="C31">
-        <v>-0.01736818353783751</v>
+        <v>-0.03262957321723757</v>
       </c>
       <c r="D31">
-        <v>-0.009630053936517049</v>
+        <v>0.002402175493923537</v>
       </c>
       <c r="E31">
-        <v>0.006706382447125203</v>
+        <v>0.002422857113014622</v>
       </c>
       <c r="F31">
-        <v>-0.03313443502689375</v>
+        <v>-0.002034972354618671</v>
       </c>
       <c r="G31">
-        <v>-0.000238215726824741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02028395963254325</v>
+      </c>
+      <c r="H31">
+        <v>0.02022804582340363</v>
+      </c>
+      <c r="I31">
+        <v>-0.03483767031220613</v>
+      </c>
+      <c r="J31">
+        <v>-0.02946111716020865</v>
+      </c>
+      <c r="K31">
+        <v>0.006902152168970074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03656614908660386</v>
+        <v>-0.0529601161068517</v>
       </c>
       <c r="C32">
-        <v>0.01785634760369544</v>
+        <v>-0.0002390555634028473</v>
       </c>
       <c r="D32">
-        <v>0.008745849269190286</v>
+        <v>-0.02003061174166095</v>
       </c>
       <c r="E32">
-        <v>0.08328415559395788</v>
+        <v>0.00966981674718741</v>
       </c>
       <c r="F32">
-        <v>-0.1062836076203913</v>
+        <v>0.05729374705765772</v>
       </c>
       <c r="G32">
-        <v>-0.04876568522979893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02164710917222118</v>
+      </c>
+      <c r="H32">
+        <v>0.03998208806762726</v>
+      </c>
+      <c r="I32">
+        <v>-0.004201301283335767</v>
+      </c>
+      <c r="J32">
+        <v>-0.02029395005230505</v>
+      </c>
+      <c r="K32">
+        <v>-0.003651926677463686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1112630847008507</v>
+        <v>-0.09997361955825264</v>
       </c>
       <c r="C33">
-        <v>-0.01747473481850141</v>
+        <v>-0.05496387499639272</v>
       </c>
       <c r="D33">
-        <v>-0.008242446749764092</v>
+        <v>0.06901700082719403</v>
       </c>
       <c r="E33">
-        <v>0.00876734505014304</v>
+        <v>-0.02516092387722676</v>
       </c>
       <c r="F33">
-        <v>-0.06092721670030597</v>
+        <v>0.01838838982965433</v>
       </c>
       <c r="G33">
-        <v>-0.05147384267682671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03761385452813144</v>
+      </c>
+      <c r="H33">
+        <v>0.04955219097550689</v>
+      </c>
+      <c r="I33">
+        <v>-0.01489549081444065</v>
+      </c>
+      <c r="J33">
+        <v>0.01628488728253174</v>
+      </c>
+      <c r="K33">
+        <v>0.02434452499743815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06553805179977046</v>
+        <v>-0.07080238021025229</v>
       </c>
       <c r="C34">
-        <v>-0.04824993773807708</v>
+        <v>-0.05562691531971519</v>
       </c>
       <c r="D34">
-        <v>0.01205343201143566</v>
+        <v>0.0186568298570437</v>
       </c>
       <c r="E34">
-        <v>0.009096870957353209</v>
+        <v>-0.02704434973979169</v>
       </c>
       <c r="F34">
-        <v>-0.03426198107581609</v>
+        <v>0.01762866990517737</v>
       </c>
       <c r="G34">
-        <v>-0.09557331452965025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.09377922700584572</v>
+      </c>
+      <c r="H34">
+        <v>0.08873990315546425</v>
+      </c>
+      <c r="I34">
+        <v>-0.01021264423633097</v>
+      </c>
+      <c r="J34">
+        <v>0.08766737369149306</v>
+      </c>
+      <c r="K34">
+        <v>-0.01785361191357073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04553615949942078</v>
+        <v>-0.02094796430777532</v>
       </c>
       <c r="C35">
-        <v>-0.005695702811282968</v>
+        <v>-0.01682338553074729</v>
       </c>
       <c r="D35">
-        <v>-0.01789154642735537</v>
+        <v>0.004547025778548097</v>
       </c>
       <c r="E35">
-        <v>0.01118649561173742</v>
+        <v>-0.005447004264028059</v>
       </c>
       <c r="F35">
-        <v>0.04029904894999783</v>
+        <v>0.001778784772471813</v>
       </c>
       <c r="G35">
-        <v>-0.05785019027872112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05788102971908465</v>
+      </c>
+      <c r="H35">
+        <v>0.02532497591275909</v>
+      </c>
+      <c r="I35">
+        <v>0.005028000504079265</v>
+      </c>
+      <c r="J35">
+        <v>-0.003842440362784037</v>
+      </c>
+      <c r="K35">
+        <v>-0.06748365606999471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03711719768929658</v>
+        <v>-0.0305100982158507</v>
       </c>
       <c r="C36">
-        <v>-0.003563476054557443</v>
+        <v>-0.01186636490313123</v>
       </c>
       <c r="D36">
-        <v>0.02322990760503343</v>
+        <v>0.003635007938414754</v>
       </c>
       <c r="E36">
-        <v>0.03536178448188733</v>
+        <v>0.004839614213260146</v>
       </c>
       <c r="F36">
-        <v>-0.008844595179318768</v>
+        <v>-0.006628295350566032</v>
       </c>
       <c r="G36">
-        <v>-0.05499153179481898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04722781282871631</v>
+      </c>
+      <c r="H36">
+        <v>0.05116828139520387</v>
+      </c>
+      <c r="I36">
+        <v>0.007768475131712836</v>
+      </c>
+      <c r="J36">
+        <v>-0.02669046251034492</v>
+      </c>
+      <c r="K36">
+        <v>0.01319762002803171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05464037926173773</v>
+        <v>-0.02205916288787101</v>
       </c>
       <c r="C38">
-        <v>-0.01476611726121771</v>
+        <v>-0.0201912804645897</v>
       </c>
       <c r="D38">
-        <v>0.005626902511155039</v>
+        <v>0.01287118839620228</v>
       </c>
       <c r="E38">
-        <v>0.0101503275404649</v>
+        <v>-0.0002793630697349151</v>
       </c>
       <c r="F38">
-        <v>-0.002114007563866181</v>
+        <v>-0.0227406841416123</v>
       </c>
       <c r="G38">
-        <v>-0.05775403008251734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01144440647559671</v>
+      </c>
+      <c r="H38">
+        <v>-0.04595434230990405</v>
+      </c>
+      <c r="I38">
+        <v>0.01418451022446527</v>
+      </c>
+      <c r="J38">
+        <v>-0.01603596463610303</v>
+      </c>
+      <c r="K38">
+        <v>-0.000188556176896885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1096301090666369</v>
+        <v>-0.1196140924108921</v>
       </c>
       <c r="C39">
-        <v>-0.04136271987519639</v>
+        <v>-0.08634866677824986</v>
       </c>
       <c r="D39">
-        <v>0.004219485330906816</v>
+        <v>0.04608387845536475</v>
       </c>
       <c r="E39">
-        <v>0.06906789007593922</v>
+        <v>-0.07289803509818552</v>
       </c>
       <c r="F39">
-        <v>-0.01625756982880503</v>
+        <v>0.0794976503672167</v>
       </c>
       <c r="G39">
-        <v>-0.1527839948816754</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1343851864020833</v>
+      </c>
+      <c r="H39">
+        <v>0.07382873334264917</v>
+      </c>
+      <c r="I39">
+        <v>0.007041018921590129</v>
+      </c>
+      <c r="J39">
+        <v>0.1802345812840188</v>
+      </c>
+      <c r="K39">
+        <v>-0.006006284866161417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0530956127565753</v>
+        <v>-0.01926933733108802</v>
       </c>
       <c r="C40">
-        <v>-0.02353702616122695</v>
+        <v>-0.03359553627937482</v>
       </c>
       <c r="D40">
-        <v>-0.01775054782474002</v>
+        <v>-0.004995819269368744</v>
       </c>
       <c r="E40">
-        <v>0.1012942542381045</v>
+        <v>0.03773770238410545</v>
       </c>
       <c r="F40">
-        <v>0.00473844198259264</v>
+        <v>-0.05846841966506717</v>
       </c>
       <c r="G40">
-        <v>-0.2418124915741955</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.07294073591897704</v>
+      </c>
+      <c r="H40">
+        <v>0.09445179131467829</v>
+      </c>
+      <c r="I40">
+        <v>0.08801163797004855</v>
+      </c>
+      <c r="J40">
+        <v>-0.03464484464098476</v>
+      </c>
+      <c r="K40">
+        <v>-0.04992577746947936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04841992356819439</v>
+        <v>-0.03255468975302313</v>
       </c>
       <c r="C41">
-        <v>-0.02911482449331247</v>
+        <v>-0.0166461121646941</v>
       </c>
       <c r="D41">
-        <v>-0.0007449192887072054</v>
+        <v>-0.007454225237920407</v>
       </c>
       <c r="E41">
-        <v>-0.0126919025455515</v>
+        <v>-0.01144192604742798</v>
       </c>
       <c r="F41">
-        <v>-0.02948557307291169</v>
+        <v>0.003067088039928413</v>
       </c>
       <c r="G41">
-        <v>-0.06328975557548933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01991019044882073</v>
+      </c>
+      <c r="H41">
+        <v>0.01373163766685003</v>
+      </c>
+      <c r="I41">
+        <v>-0.01285478144195256</v>
+      </c>
+      <c r="J41">
+        <v>-0.02059678792736101</v>
+      </c>
+      <c r="K41">
+        <v>-0.02482040818583118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07350681513682379</v>
+        <v>-0.04811500545819702</v>
       </c>
       <c r="C43">
-        <v>-0.02827681160753653</v>
+        <v>-0.0198875639225521</v>
       </c>
       <c r="D43">
-        <v>0.01771769517294794</v>
+        <v>0.0145192743326305</v>
       </c>
       <c r="E43">
-        <v>0.02366439826027201</v>
+        <v>-0.00415175779288553</v>
       </c>
       <c r="F43">
-        <v>-0.01753308350397303</v>
+        <v>-0.00974456663081285</v>
       </c>
       <c r="G43">
-        <v>-0.0078562225688857</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.03479246477550221</v>
+      </c>
+      <c r="H43">
+        <v>-0.001245976399531348</v>
+      </c>
+      <c r="I43">
+        <v>-0.008649328575458701</v>
+      </c>
+      <c r="J43">
+        <v>-0.01245585261422177</v>
+      </c>
+      <c r="K43">
+        <v>-0.006246156971698267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07152871437744596</v>
+        <v>-0.1083567741598525</v>
       </c>
       <c r="C44">
-        <v>-0.01957894247185337</v>
+        <v>-0.09190913602642593</v>
       </c>
       <c r="D44">
-        <v>0.09760165838189516</v>
+        <v>0.05117866833538549</v>
       </c>
       <c r="E44">
-        <v>0.05805656713326535</v>
+        <v>-0.01843636509847981</v>
       </c>
       <c r="F44">
-        <v>-0.05452805259730605</v>
+        <v>-0.1114137809644906</v>
       </c>
       <c r="G44">
-        <v>-0.09962627199871341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2339741203222055</v>
+      </c>
+      <c r="H44">
+        <v>0.1301443201667157</v>
+      </c>
+      <c r="I44">
+        <v>0.06570944974254445</v>
+      </c>
+      <c r="J44">
+        <v>-0.05970883752700045</v>
+      </c>
+      <c r="K44">
+        <v>-0.1020755649995375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04818035658047711</v>
+        <v>-0.0272157232071004</v>
       </c>
       <c r="C46">
-        <v>-0.04135169753821268</v>
+        <v>-0.01007827854427689</v>
       </c>
       <c r="D46">
-        <v>0.0304562596499932</v>
+        <v>0.01077341982632125</v>
       </c>
       <c r="E46">
-        <v>0.05094050313788032</v>
+        <v>-0.00115632620953278</v>
       </c>
       <c r="F46">
-        <v>-0.02151494918122734</v>
+        <v>-0.04525234594819245</v>
       </c>
       <c r="G46">
-        <v>-0.02891570290139264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05729237320583663</v>
+      </c>
+      <c r="H46">
+        <v>0.02206323618571631</v>
+      </c>
+      <c r="I46">
+        <v>0.005004029174209683</v>
+      </c>
+      <c r="J46">
+        <v>-0.04492730581078111</v>
+      </c>
+      <c r="K46">
+        <v>-0.075136790391799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04787864141843655</v>
+        <v>-0.04063413560671594</v>
       </c>
       <c r="C47">
-        <v>-0.001198239816297314</v>
+        <v>-0.01615109785841658</v>
       </c>
       <c r="D47">
-        <v>0.007367453431403287</v>
+        <v>-0.0007278323062767418</v>
       </c>
       <c r="E47">
-        <v>0.06299052046739424</v>
+        <v>0.008272643224321361</v>
       </c>
       <c r="F47">
-        <v>0.005129693711280132</v>
+        <v>-0.007940437069974675</v>
       </c>
       <c r="G47">
-        <v>0.005357290271500249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04719829545013149</v>
+      </c>
+      <c r="H47">
+        <v>0.02344272138302137</v>
+      </c>
+      <c r="I47">
+        <v>0.002030979667619984</v>
+      </c>
+      <c r="J47">
+        <v>-0.04877288431133868</v>
+      </c>
+      <c r="K47">
+        <v>-0.02891337118052989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04502028396046014</v>
+        <v>-0.04485879005690731</v>
       </c>
       <c r="C48">
-        <v>0.0009280400585601219</v>
+        <v>-0.01545424368402559</v>
       </c>
       <c r="D48">
-        <v>-0.003243229523231622</v>
+        <v>0.006011309090742933</v>
       </c>
       <c r="E48">
-        <v>0.03859282736453284</v>
+        <v>-0.007799308733767069</v>
       </c>
       <c r="F48">
-        <v>-0.01161650564810001</v>
+        <v>-0.005157202304700801</v>
       </c>
       <c r="G48">
-        <v>-0.0401191025939629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05412121213264294</v>
+      </c>
+      <c r="H48">
+        <v>0.04494122120351739</v>
+      </c>
+      <c r="I48">
+        <v>0.01208386195750312</v>
+      </c>
+      <c r="J48">
+        <v>0.006532014964646938</v>
+      </c>
+      <c r="K48">
+        <v>-0.01832678776558225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2323704368952665</v>
+        <v>-0.2298966750089473</v>
       </c>
       <c r="C49">
-        <v>-0.0896933728628964</v>
+        <v>-0.04074739354193412</v>
       </c>
       <c r="D49">
-        <v>0.02185305844624215</v>
+        <v>-0.05481673975617531</v>
       </c>
       <c r="E49">
-        <v>-0.09328959199831501</v>
+        <v>-0.0581374640998298</v>
       </c>
       <c r="F49">
-        <v>0.1607889724187525</v>
+        <v>-0.001645568775224897</v>
       </c>
       <c r="G49">
-        <v>0.06919871316634063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2119173238322322</v>
+      </c>
+      <c r="H49">
+        <v>-0.1549992885055502</v>
+      </c>
+      <c r="I49">
+        <v>0.1466445099848696</v>
+      </c>
+      <c r="J49">
+        <v>0.2666274797898676</v>
+      </c>
+      <c r="K49">
+        <v>0.1493176988473468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05494703157869955</v>
+        <v>-0.04403780596230416</v>
       </c>
       <c r="C50">
-        <v>-0.01344597725002053</v>
+        <v>-0.02585026163670316</v>
       </c>
       <c r="D50">
-        <v>-0.004094123257205747</v>
+        <v>-0.007438436470820352</v>
       </c>
       <c r="E50">
-        <v>0.026089298419808</v>
+        <v>0.003976219681237321</v>
       </c>
       <c r="F50">
-        <v>-0.05973463706283377</v>
+        <v>0.0002258389359973789</v>
       </c>
       <c r="G50">
-        <v>0.01088995402815249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04578638945817493</v>
+      </c>
+      <c r="H50">
+        <v>0.03037511058485198</v>
+      </c>
+      <c r="I50">
+        <v>-0.02021593727349013</v>
+      </c>
+      <c r="J50">
+        <v>-0.02577420449957186</v>
+      </c>
+      <c r="K50">
+        <v>0.0254696971150171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03748004201723628</v>
+        <v>-0.02004853668997222</v>
       </c>
       <c r="C51">
-        <v>-0.01448575032369527</v>
+        <v>0.002876097754384635</v>
       </c>
       <c r="D51">
-        <v>0.01575258136353833</v>
+        <v>0.01455814846843621</v>
       </c>
       <c r="E51">
-        <v>-0.0100645702491263</v>
+        <v>-0.01338101169388445</v>
       </c>
       <c r="F51">
-        <v>-0.004396228263722151</v>
+        <v>-0.01543849270103303</v>
       </c>
       <c r="G51">
-        <v>0.01000157232254881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02561827886876385</v>
+      </c>
+      <c r="H51">
+        <v>-0.004987627945565499</v>
+      </c>
+      <c r="I51">
+        <v>0.01231953910557153</v>
+      </c>
+      <c r="J51">
+        <v>0.0271257779061915</v>
+      </c>
+      <c r="K51">
+        <v>0.006552521081341444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07296910165503322</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03916966176308924</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.008826155893313167</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01540986669972991</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01482128886419571</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.04939763623344619</v>
+      </c>
+      <c r="H52">
+        <v>-0.03707568694950018</v>
+      </c>
+      <c r="I52">
+        <v>-0.1292752997396326</v>
+      </c>
+      <c r="J52">
+        <v>-0.01644317648212915</v>
+      </c>
+      <c r="K52">
+        <v>0.01092116378544167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.159485165199537</v>
+        <v>-0.1631995426410154</v>
       </c>
       <c r="C53">
-        <v>0.0007685404444777616</v>
+        <v>-0.03150546241997382</v>
       </c>
       <c r="D53">
-        <v>0.01419329127985904</v>
+        <v>0.003479342775576505</v>
       </c>
       <c r="E53">
-        <v>-0.05454260957362497</v>
+        <v>-0.02209392919784921</v>
       </c>
       <c r="F53">
-        <v>-0.2306119950531986</v>
+        <v>-0.01253826558573047</v>
       </c>
       <c r="G53">
-        <v>0.07870397768157288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.007164438488359877</v>
+      </c>
+      <c r="H53">
+        <v>-0.1086364222944941</v>
+      </c>
+      <c r="I53">
+        <v>-0.2618299864806114</v>
+      </c>
+      <c r="J53">
+        <v>-0.103805315737583</v>
+      </c>
+      <c r="K53">
+        <v>0.09134609516416714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05385254412873044</v>
+        <v>-0.05241139150118271</v>
       </c>
       <c r="C54">
-        <v>-0.006481474063707309</v>
+        <v>-0.03150639126369779</v>
       </c>
       <c r="D54">
-        <v>0.02593490880122593</v>
+        <v>-0.004263593316962298</v>
       </c>
       <c r="E54">
-        <v>0.04169537781089026</v>
+        <v>0.006612005856091911</v>
       </c>
       <c r="F54">
-        <v>-0.02338808591822843</v>
+        <v>-0.02506612231267165</v>
       </c>
       <c r="G54">
-        <v>-0.06839564260124115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06983292234355307</v>
+      </c>
+      <c r="H54">
+        <v>0.121666494338238</v>
+      </c>
+      <c r="I54">
+        <v>0.01018520345139676</v>
+      </c>
+      <c r="J54">
+        <v>-0.1160373246572493</v>
+      </c>
+      <c r="K54">
+        <v>-0.06610253064349257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09360057682662806</v>
+        <v>-0.08936625197184964</v>
       </c>
       <c r="C55">
-        <v>-0.01640700784156491</v>
+        <v>-0.03296411977025961</v>
       </c>
       <c r="D55">
-        <v>0.02097256659409392</v>
+        <v>0.05242174250377085</v>
       </c>
       <c r="E55">
-        <v>0.001995479665228651</v>
+        <v>-0.03905505539361711</v>
       </c>
       <c r="F55">
-        <v>-0.182739321551198</v>
+        <v>0.002870928040535381</v>
       </c>
       <c r="G55">
-        <v>0.02429234559895768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01842389081540543</v>
+      </c>
+      <c r="H55">
+        <v>-0.01982585666810075</v>
+      </c>
+      <c r="I55">
+        <v>-0.1599635775367507</v>
+      </c>
+      <c r="J55">
+        <v>-0.05594486417156377</v>
+      </c>
+      <c r="K55">
+        <v>0.0366390705417108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1609037758560073</v>
+        <v>-0.160106095867597</v>
       </c>
       <c r="C56">
-        <v>-0.001544054291973689</v>
+        <v>-0.04418826913653815</v>
       </c>
       <c r="D56">
-        <v>0.006490479979489963</v>
+        <v>0.01682490304087724</v>
       </c>
       <c r="E56">
-        <v>-0.05313369970426444</v>
+        <v>-0.04608508923667075</v>
       </c>
       <c r="F56">
-        <v>-0.2340499889973655</v>
+        <v>-0.004890821007121689</v>
       </c>
       <c r="G56">
-        <v>0.08024694049106798</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04340491289165707</v>
+      </c>
+      <c r="H56">
+        <v>-0.07668385012100117</v>
+      </c>
+      <c r="I56">
+        <v>-0.2178954079727315</v>
+      </c>
+      <c r="J56">
+        <v>-0.07430777433618119</v>
+      </c>
+      <c r="K56">
+        <v>0.08293193350491834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02393215683705226</v>
+        <v>-0.04035722315761264</v>
       </c>
       <c r="C58">
-        <v>-0.05578621227781975</v>
+        <v>-0.03135539572610508</v>
       </c>
       <c r="D58">
-        <v>-0.02697726433361262</v>
+        <v>0.002868740842682251</v>
       </c>
       <c r="E58">
-        <v>0.2545258559011874</v>
+        <v>0.05450535321745902</v>
       </c>
       <c r="F58">
-        <v>0.4098834955988531</v>
+        <v>-0.06155417659847529</v>
       </c>
       <c r="G58">
-        <v>-0.1676644331530408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1079055990261524</v>
+      </c>
+      <c r="H58">
+        <v>-0.00364527132657875</v>
+      </c>
+      <c r="I58">
+        <v>0.1355115641180781</v>
+      </c>
+      <c r="J58">
+        <v>0.01320677378830312</v>
+      </c>
+      <c r="K58">
+        <v>-0.231171541250577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.155580661858531</v>
+        <v>-0.179444325158982</v>
       </c>
       <c r="C59">
-        <v>0.3890821389117379</v>
+        <v>0.3003785313145755</v>
       </c>
       <c r="D59">
-        <v>0.09245585762487175</v>
+        <v>0.03260474152920782</v>
       </c>
       <c r="E59">
-        <v>-0.07221944404491239</v>
+        <v>-0.0575710610081917</v>
       </c>
       <c r="F59">
-        <v>-0.0404033304694843</v>
+        <v>0.01425926503193824</v>
       </c>
       <c r="G59">
-        <v>-0.02881606401337891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02064297035669412</v>
+      </c>
+      <c r="H59">
+        <v>0.05479860159565556</v>
+      </c>
+      <c r="I59">
+        <v>-0.06009779632619782</v>
+      </c>
+      <c r="J59">
+        <v>0.01733648450426363</v>
+      </c>
+      <c r="K59">
+        <v>0.02354980704697891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2656528313599463</v>
+        <v>-0.2669722697022426</v>
       </c>
       <c r="C60">
-        <v>-0.07373942143216383</v>
+        <v>-0.1433351320211628</v>
       </c>
       <c r="D60">
-        <v>0.0740222093477234</v>
+        <v>-0.05186045478022819</v>
       </c>
       <c r="E60">
-        <v>-0.08154416672430709</v>
+        <v>-0.1276184007818446</v>
       </c>
       <c r="F60">
-        <v>0.103609378776119</v>
+        <v>-0.03079688458139865</v>
       </c>
       <c r="G60">
-        <v>0.1605452772725871</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06516851606572421</v>
+      </c>
+      <c r="H60">
+        <v>-0.2100560527800388</v>
+      </c>
+      <c r="I60">
+        <v>0.2188819046502919</v>
+      </c>
+      <c r="J60">
+        <v>0.1044261285600759</v>
+      </c>
+      <c r="K60">
+        <v>0.3216921383965387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09493749597408693</v>
+        <v>-0.1066064604388474</v>
       </c>
       <c r="C61">
-        <v>-0.01856512378381719</v>
+        <v>-0.04694653227045538</v>
       </c>
       <c r="D61">
-        <v>0.005194915884194328</v>
+        <v>0.03601121746342393</v>
       </c>
       <c r="E61">
-        <v>0.02256328340231693</v>
+        <v>-0.0619475342140359</v>
       </c>
       <c r="F61">
-        <v>-0.02115589050617597</v>
+        <v>0.03453733047012708</v>
       </c>
       <c r="G61">
-        <v>-0.06612357886830186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1184124907285328</v>
+      </c>
+      <c r="H61">
+        <v>0.08866865328215967</v>
+      </c>
+      <c r="I61">
+        <v>-0.05081832636522465</v>
+      </c>
+      <c r="J61">
+        <v>0.08548876433917833</v>
+      </c>
+      <c r="K61">
+        <v>-0.02990089360887972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1444636396927377</v>
+        <v>-0.1543203341932593</v>
       </c>
       <c r="C62">
-        <v>-0.02557472798530189</v>
+        <v>-0.0474195020729746</v>
       </c>
       <c r="D62">
-        <v>-0.03168998015855796</v>
+        <v>0.01880897020933972</v>
       </c>
       <c r="E62">
-        <v>-0.1238916106968161</v>
+        <v>-0.03610921447755985</v>
       </c>
       <c r="F62">
-        <v>-0.2492246142304281</v>
+        <v>0.01371454885232318</v>
       </c>
       <c r="G62">
-        <v>0.04632735375048565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0238498003383395</v>
+      </c>
+      <c r="H62">
+        <v>-0.09362611018261117</v>
+      </c>
+      <c r="I62">
+        <v>-0.2134999097137288</v>
+      </c>
+      <c r="J62">
+        <v>-0.1009484664852428</v>
+      </c>
+      <c r="K62">
+        <v>0.07647330866388481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04290007262665253</v>
+        <v>-0.04007453712321902</v>
       </c>
       <c r="C63">
-        <v>-0.01515114509195189</v>
+        <v>-0.004254000905503027</v>
       </c>
       <c r="D63">
-        <v>-0.007564337301851951</v>
+        <v>0.009074157618954665</v>
       </c>
       <c r="E63">
-        <v>0.01220157672623744</v>
+        <v>0.02082992051954174</v>
       </c>
       <c r="F63">
-        <v>-0.02986475994566113</v>
+        <v>0.01846821107161521</v>
       </c>
       <c r="G63">
-        <v>-0.03746851130962438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.03667273335097916</v>
+      </c>
+      <c r="H63">
+        <v>0.05503893920939623</v>
+      </c>
+      <c r="I63">
+        <v>0.01033856397671525</v>
+      </c>
+      <c r="J63">
+        <v>-0.009657420708765196</v>
+      </c>
+      <c r="K63">
+        <v>-0.00390594060597954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1072019346503985</v>
+        <v>-0.0999756217948663</v>
       </c>
       <c r="C64">
-        <v>-0.01148187304896154</v>
+        <v>-0.02511839857358388</v>
       </c>
       <c r="D64">
-        <v>0.03899753141199442</v>
+        <v>-0.003867867047684561</v>
       </c>
       <c r="E64">
-        <v>0.03676283927719453</v>
+        <v>-0.03660460207132578</v>
       </c>
       <c r="F64">
-        <v>0.02712077223654678</v>
+        <v>-0.03659161708605072</v>
       </c>
       <c r="G64">
-        <v>-0.05794192329528753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06027648156915849</v>
+      </c>
+      <c r="H64">
+        <v>0.04251556055607152</v>
+      </c>
+      <c r="I64">
+        <v>0.08017507607975576</v>
+      </c>
+      <c r="J64">
+        <v>0.02985730024664665</v>
+      </c>
+      <c r="K64">
+        <v>0.03443227483343383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1198127439602327</v>
+        <v>-0.1145656766638828</v>
       </c>
       <c r="C65">
-        <v>-0.0254419817330721</v>
+        <v>-0.007197083535733795</v>
       </c>
       <c r="D65">
-        <v>0.01879925297961723</v>
+        <v>-0.005752811067672987</v>
       </c>
       <c r="E65">
-        <v>0.05513454972341837</v>
+        <v>0.02929945252035307</v>
       </c>
       <c r="F65">
-        <v>0.2060521607730111</v>
+        <v>0.01587311653146075</v>
       </c>
       <c r="G65">
-        <v>0.1958825724199457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.03656106495747264</v>
+      </c>
+      <c r="H65">
+        <v>-0.003960704459146454</v>
+      </c>
+      <c r="I65">
+        <v>0.3304663722629332</v>
+      </c>
+      <c r="J65">
+        <v>-0.4565591375576029</v>
+      </c>
+      <c r="K65">
+        <v>0.2722844118967728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607072635918747</v>
+        <v>-0.1453747578985706</v>
       </c>
       <c r="C66">
-        <v>-0.04889541854652175</v>
+        <v>-0.1017420054293032</v>
       </c>
       <c r="D66">
-        <v>-0.01759577599446667</v>
+        <v>0.04792843158695975</v>
       </c>
       <c r="E66">
-        <v>0.0193086800164833</v>
+        <v>-0.07048986173899609</v>
       </c>
       <c r="F66">
-        <v>-0.04869009020952382</v>
+        <v>0.0856252869346103</v>
       </c>
       <c r="G66">
-        <v>-0.2939503913188714</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1324514001101157</v>
+      </c>
+      <c r="H66">
+        <v>0.06197507097065814</v>
+      </c>
+      <c r="I66">
+        <v>-0.01495498476858925</v>
+      </c>
+      <c r="J66">
+        <v>0.2134113548537795</v>
+      </c>
+      <c r="K66">
+        <v>0.04857878242965422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1063469902126618</v>
+        <v>-0.07904733214919607</v>
       </c>
       <c r="C67">
-        <v>-0.03836769462261834</v>
+        <v>-0.05242941432535587</v>
       </c>
       <c r="D67">
-        <v>0.02284305954065861</v>
+        <v>0.07814578685845593</v>
       </c>
       <c r="E67">
-        <v>-0.01327858897085827</v>
+        <v>-0.02674102894234348</v>
       </c>
       <c r="F67">
-        <v>-0.0140758616521328</v>
+        <v>-0.0203223143123543</v>
       </c>
       <c r="G67">
-        <v>-0.05260889231518356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05548794708806872</v>
+      </c>
+      <c r="H67">
+        <v>-0.01863454793370634</v>
+      </c>
+      <c r="I67">
+        <v>-0.006002683643511896</v>
+      </c>
+      <c r="J67">
+        <v>0.05289987668189344</v>
+      </c>
+      <c r="K67">
+        <v>0.06783946556771658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04158936024758476</v>
+        <v>-0.08902652037556516</v>
       </c>
       <c r="C68">
-        <v>0.2924263389487374</v>
+        <v>0.2836883977542474</v>
       </c>
       <c r="D68">
-        <v>0.04050423371463763</v>
+        <v>0.004044448610553151</v>
       </c>
       <c r="E68">
-        <v>-0.01156959325486497</v>
+        <v>-0.008152604303083903</v>
       </c>
       <c r="F68">
-        <v>0.005310926917979425</v>
+        <v>0.02429309840368532</v>
       </c>
       <c r="G68">
-        <v>0.02848055171198741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03605454743894684</v>
+      </c>
+      <c r="H68">
+        <v>0.02826660022083467</v>
+      </c>
+      <c r="I68">
+        <v>0.005284250333755416</v>
+      </c>
+      <c r="J68">
+        <v>-0.006259233389278421</v>
+      </c>
+      <c r="K68">
+        <v>0.01852353875059679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04651450849175677</v>
+        <v>-0.03704395680539876</v>
       </c>
       <c r="C69">
-        <v>-0.01724794871970637</v>
+        <v>-0.005511652304206722</v>
       </c>
       <c r="D69">
-        <v>-0.0001984719680488551</v>
+        <v>0.02519298124342417</v>
       </c>
       <c r="E69">
-        <v>0.001145947922504886</v>
+        <v>-0.01129510773812082</v>
       </c>
       <c r="F69">
-        <v>-0.006856843658982961</v>
+        <v>-0.008217242162848018</v>
       </c>
       <c r="G69">
-        <v>-0.02093199004178957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02016380867772315</v>
+      </c>
+      <c r="H69">
+        <v>-0.0005988254461824571</v>
+      </c>
+      <c r="I69">
+        <v>-0.006116549725298808</v>
+      </c>
+      <c r="J69">
+        <v>-0.02718088178149413</v>
+      </c>
+      <c r="K69">
+        <v>0.01309749510364893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07418544381108266</v>
+        <v>-0.04669794630494274</v>
       </c>
       <c r="C70">
-        <v>-0.008106571101007371</v>
+        <v>-0.002857033295027291</v>
       </c>
       <c r="D70">
-        <v>0.03352772940179861</v>
+        <v>0.02995449355643414</v>
       </c>
       <c r="E70">
-        <v>-0.03152729128659591</v>
+        <v>-0.04816726701826347</v>
       </c>
       <c r="F70">
-        <v>0.07632176910042458</v>
+        <v>-0.00249187611543088</v>
       </c>
       <c r="G70">
-        <v>0.005607730427164013</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01631367263032394</v>
+      </c>
+      <c r="H70">
+        <v>0.010308967981962</v>
+      </c>
+      <c r="I70">
+        <v>0.07776443651790761</v>
+      </c>
+      <c r="J70">
+        <v>-0.1332270043119748</v>
+      </c>
+      <c r="K70">
+        <v>-0.1636172824152506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05146116071302843</v>
+        <v>-0.1044932647831793</v>
       </c>
       <c r="C71">
-        <v>0.2929313236460979</v>
+        <v>0.296567497943214</v>
       </c>
       <c r="D71">
-        <v>0.05821668834762994</v>
+        <v>0.007487483712108101</v>
       </c>
       <c r="E71">
-        <v>-0.0086877198608067</v>
+        <v>-0.02719786409049004</v>
       </c>
       <c r="F71">
-        <v>0.003293229677972056</v>
+        <v>-0.001991866375649713</v>
       </c>
       <c r="G71">
-        <v>-0.00828878973357865</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04596191523660251</v>
+      </c>
+      <c r="H71">
+        <v>0.02042982226857622</v>
+      </c>
+      <c r="I71">
+        <v>0.0004674066193782411</v>
+      </c>
+      <c r="J71">
+        <v>0.02148807676690188</v>
+      </c>
+      <c r="K71">
+        <v>0.03939663024531938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1471142894768682</v>
+        <v>-0.14737005428275</v>
       </c>
       <c r="C72">
-        <v>0.05175798766433232</v>
+        <v>-0.0004203982594624768</v>
       </c>
       <c r="D72">
-        <v>-0.2352645135314465</v>
+        <v>0.01369910691423947</v>
       </c>
       <c r="E72">
-        <v>-0.03251114517517699</v>
+        <v>0.07612120825952103</v>
       </c>
       <c r="F72">
-        <v>-0.02930737345332451</v>
+        <v>0.06704175866416448</v>
       </c>
       <c r="G72">
-        <v>-0.0537853160202074</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.001334915686012714</v>
+      </c>
+      <c r="H72">
+        <v>-0.02321872711420786</v>
+      </c>
+      <c r="I72">
+        <v>-0.01725142774856617</v>
+      </c>
+      <c r="J72">
+        <v>-0.0885672254868862</v>
+      </c>
+      <c r="K72">
+        <v>0.1577222377846098</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2839765698486814</v>
+        <v>-0.2420261237808546</v>
       </c>
       <c r="C73">
-        <v>-0.1642436274259998</v>
+        <v>-0.09692598206152604</v>
       </c>
       <c r="D73">
-        <v>0.04040923347841505</v>
+        <v>0.0327276091323053</v>
       </c>
       <c r="E73">
-        <v>-0.1578280912874256</v>
+        <v>-0.1592667404414449</v>
       </c>
       <c r="F73">
-        <v>0.3270703038780956</v>
+        <v>-0.01836405476768517</v>
       </c>
       <c r="G73">
-        <v>0.2133476584215078</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3094579731788244</v>
+      </c>
+      <c r="H73">
+        <v>-0.2683536535538384</v>
+      </c>
+      <c r="I73">
+        <v>0.2507713672748424</v>
+      </c>
+      <c r="J73">
+        <v>0.2377451309267043</v>
+      </c>
+      <c r="K73">
+        <v>-0.07876573640484996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09903432504427102</v>
+        <v>-0.1135340218440021</v>
       </c>
       <c r="C74">
-        <v>-0.03746926690735238</v>
+        <v>-0.05299649172523532</v>
       </c>
       <c r="D74">
-        <v>0.001341588491449697</v>
+        <v>0.02994831132011665</v>
       </c>
       <c r="E74">
-        <v>-0.0126339964439536</v>
+        <v>-0.0117678001362238</v>
       </c>
       <c r="F74">
-        <v>-0.09890948732021801</v>
+        <v>-0.002045460768420973</v>
       </c>
       <c r="G74">
-        <v>0.03889163362946254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.058093532208876</v>
+      </c>
+      <c r="H74">
+        <v>-0.0891063744666966</v>
+      </c>
+      <c r="I74">
+        <v>-0.1249473483136018</v>
+      </c>
+      <c r="J74">
+        <v>-0.06239714849804213</v>
+      </c>
+      <c r="K74">
+        <v>0.01943041197312769</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.0932007122297588</v>
+        <v>-0.1112878641258463</v>
       </c>
       <c r="C75">
-        <v>-0.01860960764853272</v>
+        <v>-0.04445347580669693</v>
       </c>
       <c r="D75">
-        <v>-0.02158847110126411</v>
+        <v>0.008837818640829574</v>
       </c>
       <c r="E75">
-        <v>-0.03324766543923202</v>
+        <v>0.0008176166564613602</v>
       </c>
       <c r="F75">
-        <v>-0.1127795604400227</v>
+        <v>0.007476971384532984</v>
       </c>
       <c r="G75">
-        <v>0.07158277143525268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.007476831624163652</v>
+      </c>
+      <c r="H75">
+        <v>-0.04423262206684216</v>
+      </c>
+      <c r="I75">
+        <v>-0.1493089296362328</v>
+      </c>
+      <c r="J75">
+        <v>-0.05663663008897237</v>
+      </c>
+      <c r="K75">
+        <v>0.009183415389468217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1351537576386418</v>
+        <v>-0.05607880786428691</v>
       </c>
       <c r="C76">
-        <v>-0.03149023585617573</v>
+        <v>-0.01781326522657495</v>
       </c>
       <c r="D76">
-        <v>0.01993451490124897</v>
+        <v>0.03181908896464303</v>
       </c>
       <c r="E76">
-        <v>0.01569875803254569</v>
+        <v>-0.02149983122116857</v>
       </c>
       <c r="F76">
-        <v>-0.2292192719121612</v>
+        <v>-0.02489108277877425</v>
       </c>
       <c r="G76">
-        <v>0.1170515340929188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03697762003793254</v>
+      </c>
+      <c r="H76">
+        <v>-0.0454292944077436</v>
+      </c>
+      <c r="I76">
+        <v>-0.1283166799370505</v>
+      </c>
+      <c r="J76">
+        <v>-0.0551434146512522</v>
+      </c>
+      <c r="K76">
+        <v>0.0229767532678754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09142191796375286</v>
+        <v>-0.07461240401221869</v>
       </c>
       <c r="C77">
-        <v>0.009927444548985278</v>
+        <v>-0.03861231127861636</v>
       </c>
       <c r="D77">
-        <v>0.04488523448136461</v>
+        <v>-0.0262624678121883</v>
       </c>
       <c r="E77">
-        <v>0.05786079895846789</v>
+        <v>-0.02187721215586672</v>
       </c>
       <c r="F77">
-        <v>0.1802023533774688</v>
+        <v>-0.03305690684319215</v>
       </c>
       <c r="G77">
-        <v>-0.2141427079365779</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09379202394966626</v>
+      </c>
+      <c r="H77">
+        <v>0.2098698867432665</v>
+      </c>
+      <c r="I77">
+        <v>0.192648492226978</v>
+      </c>
+      <c r="J77">
+        <v>-0.04808750723818125</v>
+      </c>
+      <c r="K77">
+        <v>0.1739146687460913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.21906905371584</v>
+        <v>-0.153794154742392</v>
       </c>
       <c r="C78">
-        <v>-0.07521077028509869</v>
+        <v>-0.08432413005414202</v>
       </c>
       <c r="D78">
-        <v>0.06645471191943596</v>
+        <v>0.1124979001504474</v>
       </c>
       <c r="E78">
-        <v>0.187574835837281</v>
+        <v>0.1921606804436832</v>
       </c>
       <c r="F78">
-        <v>-0.01727536362207213</v>
+        <v>-0.1653702077915</v>
       </c>
       <c r="G78">
-        <v>-0.1375595407692461</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6300136003520289</v>
+      </c>
+      <c r="H78">
+        <v>0.6101688895581283</v>
+      </c>
+      <c r="I78">
+        <v>-0.1955667446107188</v>
+      </c>
+      <c r="J78">
+        <v>0.03885506628779319</v>
+      </c>
+      <c r="K78">
+        <v>0.05074646360768357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1358699206864626</v>
+        <v>-0.1379583870522836</v>
       </c>
       <c r="C79">
-        <v>-0.01299232574664271</v>
+        <v>-0.04528074036416824</v>
       </c>
       <c r="D79">
-        <v>-0.001249110521736705</v>
+        <v>-0.006320870632029299</v>
       </c>
       <c r="E79">
-        <v>-0.01923890080119179</v>
+        <v>-0.01412170724830876</v>
       </c>
       <c r="F79">
-        <v>-0.1658622898324639</v>
+        <v>0.002221458304732513</v>
       </c>
       <c r="G79">
-        <v>0.02489148738223807</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03193998148393814</v>
+      </c>
+      <c r="H79">
+        <v>-0.05813564060957335</v>
+      </c>
+      <c r="I79">
+        <v>-0.1523106519359425</v>
+      </c>
+      <c r="J79">
+        <v>-0.07516289014283442</v>
+      </c>
+      <c r="K79">
+        <v>0.07609563704119919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03381262865175428</v>
+        <v>-0.06372396250488017</v>
       </c>
       <c r="C80">
-        <v>-0.009164144291448304</v>
+        <v>-0.04374675498651171</v>
       </c>
       <c r="D80">
-        <v>0.01830514828696119</v>
+        <v>0.03585032207274889</v>
       </c>
       <c r="E80">
-        <v>-0.02792357161164166</v>
+        <v>-0.05217718985559475</v>
       </c>
       <c r="F80">
-        <v>0.0117666139051481</v>
+        <v>0.02049863709780138</v>
       </c>
       <c r="G80">
-        <v>-0.06262692353155484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01668241867547081</v>
+      </c>
+      <c r="H80">
+        <v>0.08341885698003937</v>
+      </c>
+      <c r="I80">
+        <v>-0.03626735727978565</v>
+      </c>
+      <c r="J80">
+        <v>-0.01435081282948255</v>
+      </c>
+      <c r="K80">
+        <v>-0.175750133115708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1109557482308943</v>
+        <v>-0.1329982262201466</v>
       </c>
       <c r="C81">
-        <v>-0.007115922906409202</v>
+        <v>-0.0495146390519314</v>
       </c>
       <c r="D81">
-        <v>0.01180878211573535</v>
+        <v>0.006264751798947188</v>
       </c>
       <c r="E81">
-        <v>-0.0121367417290349</v>
+        <v>-0.0136594787253109</v>
       </c>
       <c r="F81">
-        <v>-0.1285151396151983</v>
+        <v>-0.008657434272126681</v>
       </c>
       <c r="G81">
-        <v>0.05056464134527514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04938906508928521</v>
+      </c>
+      <c r="H81">
+        <v>-0.03549258607712265</v>
+      </c>
+      <c r="I81">
+        <v>-0.1444256336298859</v>
+      </c>
+      <c r="J81">
+        <v>-0.04116788957399532</v>
+      </c>
+      <c r="K81">
+        <v>0.02127612483593652</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1083793509632183</v>
+        <v>-0.1456929488918394</v>
       </c>
       <c r="C82">
-        <v>-0.03033833829815972</v>
+        <v>-0.04246721922780954</v>
       </c>
       <c r="D82">
-        <v>0.05573282821838955</v>
+        <v>0.009649190029119912</v>
       </c>
       <c r="E82">
-        <v>-0.04838875609375439</v>
+        <v>-0.06433200606407018</v>
       </c>
       <c r="F82">
-        <v>-0.2257029095783139</v>
+        <v>0.007464606501775661</v>
       </c>
       <c r="G82">
-        <v>0.0222715769674851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04699621039235434</v>
+      </c>
+      <c r="H82">
+        <v>-0.1202526117137082</v>
+      </c>
+      <c r="I82">
+        <v>-0.2720242457368974</v>
+      </c>
+      <c r="J82">
+        <v>-0.02831236555169332</v>
+      </c>
+      <c r="K82">
+        <v>-0.01731138977959279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1050492567896726</v>
+        <v>-0.09338758693705783</v>
       </c>
       <c r="C83">
-        <v>-0.06015581103017839</v>
+        <v>-0.09810437754183728</v>
       </c>
       <c r="D83">
-        <v>0.05612595668568841</v>
+        <v>-0.01526693387588569</v>
       </c>
       <c r="E83">
-        <v>-0.02076887781653344</v>
+        <v>-0.003898179101055637</v>
       </c>
       <c r="F83">
-        <v>0.07592856382804132</v>
+        <v>-0.01123127697213988</v>
       </c>
       <c r="G83">
-        <v>-0.08697658399293046</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0551536930577004</v>
+      </c>
+      <c r="H83">
+        <v>0.08027895102586589</v>
+      </c>
+      <c r="I83">
+        <v>0.04583361690053708</v>
+      </c>
+      <c r="J83">
+        <v>-0.14277031739951</v>
+      </c>
+      <c r="K83">
+        <v>-0.1345995248713026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04906959629506718</v>
+        <v>-0.05700122878572886</v>
       </c>
       <c r="C84">
-        <v>-0.0203851047296595</v>
+        <v>0.004002540070676478</v>
       </c>
       <c r="D84">
-        <v>-0.04819298856285562</v>
+        <v>-0.02556855194977153</v>
       </c>
       <c r="E84">
-        <v>0.0241744628117754</v>
+        <v>-0.03021562578736871</v>
       </c>
       <c r="F84">
-        <v>-0.02328748022669775</v>
+        <v>0.01262874186111913</v>
       </c>
       <c r="G84">
-        <v>0.04266715331983686</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.01945521911938559</v>
+      </c>
+      <c r="H84">
+        <v>0.00650152003034399</v>
+      </c>
+      <c r="I84">
+        <v>0.04498046293711076</v>
+      </c>
+      <c r="J84">
+        <v>0.3567386741856624</v>
+      </c>
+      <c r="K84">
+        <v>-0.1381470425918856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1004346177294548</v>
+        <v>-0.1189786784985706</v>
       </c>
       <c r="C85">
-        <v>-0.02146686699348289</v>
+        <v>-0.03633244135781612</v>
       </c>
       <c r="D85">
-        <v>0.02297865151670865</v>
+        <v>0.004707540971488628</v>
       </c>
       <c r="E85">
-        <v>-0.02076192159671681</v>
+        <v>-0.03778023479303282</v>
       </c>
       <c r="F85">
-        <v>-0.1977374712190584</v>
+        <v>-0.01518863756643894</v>
       </c>
       <c r="G85">
-        <v>0.03861963517781888</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03061729995953552</v>
+      </c>
+      <c r="H85">
+        <v>-0.04064333690783312</v>
+      </c>
+      <c r="I85">
+        <v>-0.1894827454455532</v>
+      </c>
+      <c r="J85">
+        <v>-0.07522797635013188</v>
+      </c>
+      <c r="K85">
+        <v>0.06758590344412969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06847968050685713</v>
+        <v>-0.1322837757113759</v>
       </c>
       <c r="C86">
-        <v>-0.02090926545652218</v>
+        <v>-0.0464895822034889</v>
       </c>
       <c r="D86">
-        <v>0.05243563194044928</v>
+        <v>-0.935103697427736</v>
       </c>
       <c r="E86">
-        <v>0.05433996518855459</v>
+        <v>0.2092826960024495</v>
       </c>
       <c r="F86">
-        <v>0.008636786011948542</v>
+        <v>0.0005299612320037744</v>
       </c>
       <c r="G86">
-        <v>-0.1010667917625479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0229190571363976</v>
+      </c>
+      <c r="H86">
+        <v>0.06256654340884195</v>
+      </c>
+      <c r="I86">
+        <v>-0.06665550058263885</v>
+      </c>
+      <c r="J86">
+        <v>0.04741053750651988</v>
+      </c>
+      <c r="K86">
+        <v>-0.04398992104858008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1040304561768892</v>
+        <v>-0.1200040580138176</v>
       </c>
       <c r="C87">
-        <v>-0.0583163434774748</v>
+        <v>-0.09981271319914944</v>
       </c>
       <c r="D87">
-        <v>0.01936327608877985</v>
+        <v>-0.007064323982211633</v>
       </c>
       <c r="E87">
-        <v>0.06057111746477656</v>
+        <v>-0.02286273492964431</v>
       </c>
       <c r="F87">
-        <v>0.02296262651515155</v>
+        <v>-0.02372184743901225</v>
       </c>
       <c r="G87">
-        <v>-0.108820573958226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08512352148532558</v>
+      </c>
+      <c r="H87">
+        <v>0.115626562645829</v>
+      </c>
+      <c r="I87">
+        <v>0.142305672617182</v>
+      </c>
+      <c r="J87">
+        <v>-0.07790766800835347</v>
+      </c>
+      <c r="K87">
+        <v>0.01200360757936348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06845853888282405</v>
+        <v>-0.05784260646686765</v>
       </c>
       <c r="C88">
-        <v>-0.03803949018114092</v>
+        <v>-0.04068634438166813</v>
       </c>
       <c r="D88">
-        <v>0.02023152031748797</v>
+        <v>0.01574688901091916</v>
       </c>
       <c r="E88">
-        <v>0.01208888635816848</v>
+        <v>-0.04301482796694283</v>
       </c>
       <c r="F88">
-        <v>-0.004833105800925565</v>
+        <v>0.02531922514726415</v>
       </c>
       <c r="G88">
-        <v>-0.06199534503205028</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02595145881176517</v>
+      </c>
+      <c r="H88">
+        <v>0.01826727282903938</v>
+      </c>
+      <c r="I88">
+        <v>0.003541565065201029</v>
+      </c>
+      <c r="J88">
+        <v>0.003788512086384265</v>
+      </c>
+      <c r="K88">
+        <v>-0.009803251340708643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09643846051951477</v>
+        <v>-0.1555553360324617</v>
       </c>
       <c r="C89">
-        <v>0.3698089077860355</v>
+        <v>0.3722731060995512</v>
       </c>
       <c r="D89">
-        <v>0.1149029354146407</v>
+        <v>0.005954399211828078</v>
       </c>
       <c r="E89">
-        <v>0.01754790879650005</v>
+        <v>-0.01470533713070063</v>
       </c>
       <c r="F89">
-        <v>0.05776748759676041</v>
+        <v>-0.06538615320246198</v>
       </c>
       <c r="G89">
-        <v>-0.01364347657146095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002607290881491305</v>
+      </c>
+      <c r="H89">
+        <v>0.04843109503706466</v>
+      </c>
+      <c r="I89">
+        <v>0.01427469289161605</v>
+      </c>
+      <c r="J89">
+        <v>0.02130491657605415</v>
+      </c>
+      <c r="K89">
+        <v>-0.08100875529015333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07656659321286632</v>
+        <v>-0.1199060317090147</v>
       </c>
       <c r="C90">
-        <v>0.2916256904970851</v>
+        <v>0.2844365400929881</v>
       </c>
       <c r="D90">
-        <v>0.05343059385950021</v>
+        <v>-0.007003222900691592</v>
       </c>
       <c r="E90">
-        <v>0.04345338361694293</v>
+        <v>-0.02916601662020528</v>
       </c>
       <c r="F90">
-        <v>0.04920205045680705</v>
+        <v>-0.0005010534867391753</v>
       </c>
       <c r="G90">
-        <v>-0.05239509546722278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04565662337729811</v>
+      </c>
+      <c r="H90">
+        <v>0.03388115905370571</v>
+      </c>
+      <c r="I90">
+        <v>0.04928136895525626</v>
+      </c>
+      <c r="J90">
+        <v>0.05231275399188269</v>
+      </c>
+      <c r="K90">
+        <v>0.01748264843382241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08438326145397733</v>
+        <v>-0.08385231551860101</v>
       </c>
       <c r="C91">
-        <v>-0.01860743526437999</v>
+        <v>-0.03734190106728141</v>
       </c>
       <c r="D91">
-        <v>0.005191436242655896</v>
+        <v>-0.01293130311524115</v>
       </c>
       <c r="E91">
-        <v>-0.01355338262462099</v>
+        <v>-0.01475649269833756</v>
       </c>
       <c r="F91">
-        <v>-0.0789392760613369</v>
+        <v>-0.01338231336511175</v>
       </c>
       <c r="G91">
-        <v>0.07657080378555853</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01417363058629809</v>
+      </c>
+      <c r="H91">
+        <v>-0.05124717690247532</v>
+      </c>
+      <c r="I91">
+        <v>-0.107883079597628</v>
+      </c>
+      <c r="J91">
+        <v>-0.05216630451835608</v>
+      </c>
+      <c r="K91">
+        <v>0.02407335246577365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07275017599001934</v>
+        <v>-0.1296315966555185</v>
       </c>
       <c r="C92">
-        <v>0.3369375785092409</v>
+        <v>0.334595044433611</v>
       </c>
       <c r="D92">
-        <v>0.07771787796508957</v>
+        <v>0.006388126371721966</v>
       </c>
       <c r="E92">
-        <v>0.01935688218417261</v>
+        <v>-0.001861646908179706</v>
       </c>
       <c r="F92">
-        <v>0.03115420065912673</v>
+        <v>-0.03902881668167233</v>
       </c>
       <c r="G92">
-        <v>0.03139048171288263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01691991881894172</v>
+      </c>
+      <c r="H92">
+        <v>0.07315761869399033</v>
+      </c>
+      <c r="I92">
+        <v>-0.03989144029445909</v>
+      </c>
+      <c r="J92">
+        <v>0.02421782613742716</v>
+      </c>
+      <c r="K92">
+        <v>-0.0001451562958910919</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08695004547829555</v>
+        <v>-0.1244058469419903</v>
       </c>
       <c r="C93">
-        <v>0.294848349770024</v>
+        <v>0.3157492608520865</v>
       </c>
       <c r="D93">
-        <v>0.05407008089930217</v>
+        <v>-0.02249156634742265</v>
       </c>
       <c r="E93">
-        <v>0.01154782501153274</v>
+        <v>-0.04818889696544289</v>
       </c>
       <c r="F93">
-        <v>0.02318650102627406</v>
+        <v>0.01105463733124384</v>
       </c>
       <c r="G93">
-        <v>0.01575502442030506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03701552061243014</v>
+      </c>
+      <c r="H93">
+        <v>0.001603484867348696</v>
+      </c>
+      <c r="I93">
+        <v>0.01893031259850619</v>
+      </c>
+      <c r="J93">
+        <v>0.01677811218226834</v>
+      </c>
+      <c r="K93">
+        <v>0.01076972247558092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09222125093836467</v>
+        <v>-0.1267654146396501</v>
       </c>
       <c r="C94">
-        <v>-0.04822187516233208</v>
+        <v>-0.05718820813662118</v>
       </c>
       <c r="D94">
-        <v>-0.009099786655450547</v>
+        <v>0.03046731445080169</v>
       </c>
       <c r="E94">
-        <v>-0.004761369732371169</v>
+        <v>-0.01278856107690323</v>
       </c>
       <c r="F94">
-        <v>-0.1237690806481922</v>
+        <v>-0.01953335839043955</v>
       </c>
       <c r="G94">
-        <v>0.07823064205236291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01062335231568167</v>
+      </c>
+      <c r="H94">
+        <v>-0.08272337056042187</v>
+      </c>
+      <c r="I94">
+        <v>-0.1355476008087215</v>
+      </c>
+      <c r="J94">
+        <v>-0.009532030358856997</v>
+      </c>
+      <c r="K94">
+        <v>0.02800325869539764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1357836677832841</v>
+        <v>-0.1190149753917617</v>
       </c>
       <c r="C95">
-        <v>-0.07036294597260116</v>
+        <v>-0.05140204872796465</v>
       </c>
       <c r="D95">
-        <v>0.05652514487094029</v>
+        <v>0.02073940177358235</v>
       </c>
       <c r="E95">
-        <v>0.03942510396785896</v>
+        <v>-0.0196783334633138</v>
       </c>
       <c r="F95">
-        <v>0.03404356426242732</v>
+        <v>-0.0638282579074148</v>
       </c>
       <c r="G95">
-        <v>-0.1073075055117559</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.01998059612491565</v>
+      </c>
+      <c r="H95">
+        <v>0.1178173664618423</v>
+      </c>
+      <c r="I95">
+        <v>0.1787766223643665</v>
+      </c>
+      <c r="J95">
+        <v>0.02445787523695464</v>
+      </c>
+      <c r="K95">
+        <v>-0.1691426848295053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009457346838390342</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001716297986232321</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0008432324542053552</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005030469060208632</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.004460315336334401</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.0002391671612239625</v>
+      </c>
+      <c r="H96">
+        <v>0.01642428453825497</v>
+      </c>
+      <c r="I96">
+        <v>0.01507869989614088</v>
+      </c>
+      <c r="J96">
+        <v>-0.01205425264517901</v>
+      </c>
+      <c r="K96">
+        <v>0.01924477913583048</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2007247068038533</v>
+        <v>-0.1874780836378577</v>
       </c>
       <c r="C97">
-        <v>0.1579884816000023</v>
+        <v>0.005064007953277961</v>
       </c>
       <c r="D97">
-        <v>-0.901142649414401</v>
+        <v>0.1898181956870014</v>
       </c>
       <c r="E97">
-        <v>0.0305572418387298</v>
+        <v>0.7581044671221255</v>
       </c>
       <c r="F97">
-        <v>0.04556220152471337</v>
+        <v>0.5339959034830855</v>
       </c>
       <c r="G97">
-        <v>-0.045457198858666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03761808619044502</v>
+      </c>
+      <c r="H97">
+        <v>-0.1105946193488767</v>
+      </c>
+      <c r="I97">
+        <v>0.05448345732091213</v>
+      </c>
+      <c r="J97">
+        <v>0.06486635068082423</v>
+      </c>
+      <c r="K97">
+        <v>-0.03605341052408141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3186773125038375</v>
+        <v>-0.2690858344318093</v>
       </c>
       <c r="C98">
-        <v>-0.07158133706330923</v>
+        <v>-0.05348000231176727</v>
       </c>
       <c r="D98">
-        <v>0.05161666316191005</v>
+        <v>-0.008666336683468044</v>
       </c>
       <c r="E98">
-        <v>-0.2490448483792177</v>
+        <v>-0.02634511582099328</v>
       </c>
       <c r="F98">
-        <v>0.2315622715550914</v>
+        <v>-0.04675951996294866</v>
       </c>
       <c r="G98">
-        <v>0.2692909876944681</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2666150783620102</v>
+      </c>
+      <c r="H98">
+        <v>-0.2420944513444525</v>
+      </c>
+      <c r="I98">
+        <v>0.07825009481911131</v>
+      </c>
+      <c r="J98">
+        <v>-0.2405545549360658</v>
+      </c>
+      <c r="K98">
+        <v>-0.5870395653474492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08545912287358964</v>
+        <v>-0.05571460618808714</v>
       </c>
       <c r="C99">
-        <v>-0.02685752565084155</v>
+        <v>-0.01019063271796059</v>
       </c>
       <c r="D99">
-        <v>0.01116731850770507</v>
+        <v>0.03775278472526541</v>
       </c>
       <c r="E99">
-        <v>-0.01608356296758778</v>
+        <v>-0.007166140087580059</v>
       </c>
       <c r="F99">
-        <v>-0.001253434518951934</v>
+        <v>-0.02673979954948844</v>
       </c>
       <c r="G99">
-        <v>-0.01377737775084815</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01247432515725947</v>
+      </c>
+      <c r="H99">
+        <v>0.007318829790380365</v>
+      </c>
+      <c r="I99">
+        <v>-0.01392913004432881</v>
+      </c>
+      <c r="J99">
+        <v>0.01588638218161825</v>
+      </c>
+      <c r="K99">
+        <v>0.01757208647197101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02153509299042054</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03936467261953864</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.1043058557512633</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.03242903933980312</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04751953217441385</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.07162575375283889</v>
+      </c>
+      <c r="H100">
+        <v>-0.01211070461281381</v>
+      </c>
+      <c r="I100">
+        <v>-0.06889131460992863</v>
+      </c>
+      <c r="J100">
+        <v>-0.02821888566741815</v>
+      </c>
+      <c r="K100">
+        <v>-0.2261824420846746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.0581235368392482</v>
+        <v>-0.04069794394357895</v>
       </c>
       <c r="C101">
-        <v>-0.009446000261498963</v>
+        <v>-0.01862587623016417</v>
       </c>
       <c r="D101">
-        <v>0.02799044614315624</v>
+        <v>0.002340657260714362</v>
       </c>
       <c r="E101">
-        <v>0.0442827484834929</v>
+        <v>-0.03086077314135825</v>
       </c>
       <c r="F101">
-        <v>-0.03772947552919197</v>
+        <v>-0.003706810879376588</v>
       </c>
       <c r="G101">
-        <v>-0.03927759813723406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09300209891975859</v>
+      </c>
+      <c r="H101">
+        <v>0.03823030205044563</v>
+      </c>
+      <c r="I101">
+        <v>-0.003101151581209401</v>
+      </c>
+      <c r="J101">
+        <v>-0.05177425132899855</v>
+      </c>
+      <c r="K101">
+        <v>-0.04696401873753406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
